--- a/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\09,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\09,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490D5C6-1319-4CAD-918A-9B7E97B5C24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE201C5-7906-4849-BE2C-BEF84CC4E99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -241,10 +241,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2485,7 +2489,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -3165,7 +3169,7 @@
         <v>3.7</v>
       </c>
       <c r="Y12" s="28">
-        <f t="shared" ref="Y7:Y38" si="9">N12/X12</f>
+        <f t="shared" ref="Y12:Y34" si="9">N12/X12</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
